--- a/Week05/testfiles/Tests.xlsx
+++ b/Week05/testfiles/Tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dumacduke-my.sharepoint.com/personal/dpazzula_dumac_duke_edu/Documents/Documents/FinTech545_Fall2023/testfiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruchenshi/Documents/GitHub/Fintech545/Week05/testfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="150" documentId="11_F25DC773A252ABDACC10488DC99B48205ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20FC16AB-1682-4235-BE05-82D5CA2CFDEB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB56173E-260B-FC44-A73E-F0BA6A654930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22860" yWindow="885" windowWidth="21735" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -494,20 +494,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="61.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -521,7 +521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
@@ -535,8 +535,11 @@
         <f>"testout_"&amp;A2&amp;".csv"</f>
         <v>testout_1.1.csv</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1.2</v>
       </c>
@@ -547,11 +550,14 @@
         <v>5</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D32" si="0">"testout_"&amp;A3&amp;".csv"</f>
+        <f t="shared" ref="D3:D30" si="0">"testout_"&amp;A3&amp;".csv"</f>
         <v>testout_1.2.csv</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1.3</v>
       </c>
@@ -565,8 +571,11 @@
         <f t="shared" si="0"/>
         <v>testout_1.3.csv</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1.4</v>
       </c>
@@ -580,8 +589,11 @@
         <f t="shared" si="0"/>
         <v>testout_1.4.csv</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2.1</v>
       </c>
@@ -595,8 +607,11 @@
         <f t="shared" si="0"/>
         <v>testout_2.1.csv</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2.2000000000000002</v>
       </c>
@@ -610,8 +625,11 @@
         <f t="shared" si="0"/>
         <v>testout_2.2.csv</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2.2999999999999998</v>
       </c>
@@ -625,8 +643,11 @@
         <f t="shared" si="0"/>
         <v>testout_2.3.csv</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3.1</v>
       </c>
@@ -640,8 +661,11 @@
         <f t="shared" si="0"/>
         <v>testout_3.1.csv</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3.2</v>
       </c>
@@ -655,8 +679,11 @@
         <f t="shared" si="0"/>
         <v>testout_3.2.csv</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3.3</v>
       </c>
@@ -670,8 +697,11 @@
         <f t="shared" si="0"/>
         <v>testout_3.3.csv</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3.4</v>
       </c>
@@ -685,8 +715,11 @@
         <f t="shared" si="0"/>
         <v>testout_3.4.csv</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>4.0999999999999996</v>
       </c>
@@ -700,8 +733,11 @@
         <f t="shared" si="0"/>
         <v>testout_4.1.csv</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5.0999999999999996</v>
       </c>
@@ -716,7 +752,7 @@
         <v>testout_5.1.csv</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5.2</v>
       </c>
@@ -731,7 +767,7 @@
         <v>testout_5.2.csv</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>5.3</v>
       </c>
@@ -746,7 +782,7 @@
         <v>testout_5.3.csv</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5.4</v>
       </c>
@@ -761,7 +797,7 @@
         <v>testout_5.4.csv</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5.5</v>
       </c>
@@ -776,7 +812,7 @@
         <v>testout_5.5.csv</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6.1</v>
       </c>
@@ -790,8 +826,11 @@
         <f t="shared" si="0"/>
         <v>testout_6.1.csv</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6.2</v>
       </c>
@@ -805,8 +844,11 @@
         <f t="shared" si="0"/>
         <v>testout_6.2.csv</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>7.1</v>
       </c>
@@ -820,8 +862,11 @@
         <f t="shared" si="0"/>
         <v>testout_7.1.csv</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>7.2</v>
       </c>
@@ -835,8 +880,11 @@
         <f t="shared" si="0"/>
         <v>testout_7.2.csv</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>7.3</v>
       </c>
@@ -850,8 +898,11 @@
         <f t="shared" si="0"/>
         <v>testout_7.3.csv</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>8.1</v>
       </c>
@@ -865,8 +916,11 @@
         <f t="shared" si="0"/>
         <v>testout_8.1.csv</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>8.1999999999999993</v>
       </c>
@@ -880,8 +934,11 @@
         <f t="shared" si="0"/>
         <v>testout_8.2.csv</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>8.3000000000000007</v>
       </c>
@@ -895,8 +952,11 @@
         <f t="shared" si="0"/>
         <v>testout_8.3.csv</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>8.4</v>
       </c>
@@ -910,8 +970,11 @@
         <f t="shared" si="0"/>
         <v>testout_8.4.csv</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>8.5</v>
       </c>
@@ -925,8 +988,11 @@
         <f t="shared" si="0"/>
         <v>testout_8.5.csv</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>8.6</v>
       </c>
@@ -941,7 +1007,7 @@
         <v>testout_8.6.csv</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>9.1</v>
       </c>
@@ -954,6 +1020,12 @@
       <c r="D30" t="str">
         <f t="shared" si="0"/>
         <v>testout_9.1.csv</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <f>SUM(E2:E30)</f>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
